--- a/result/团队_鑫e贷放款完成情况.xlsx
+++ b/result/团队_鑫e贷放款完成情况.xlsx
@@ -486,13 +486,13 @@
         <v>150</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>81.79000000000001</v>
       </c>
       <c r="D2">
-        <v>63.7</v>
+        <v>125.49</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>63.7</v>
+        <v>145.49</v>
       </c>
       <c r="I2">
-        <v>0.4246666666666667</v>
+        <v>0.9699333333333334</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -515,10 +515,10 @@
         <v>150</v>
       </c>
       <c r="C3">
-        <v>23.59999999999999</v>
+        <v>29.8502</v>
       </c>
       <c r="D3">
-        <v>81.09999999999999</v>
+        <v>87.3502</v>
       </c>
       <c r="E3">
         <v>10</v>
@@ -530,10 +530,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>91.09999999999999</v>
+        <v>97.3502</v>
       </c>
       <c r="I3">
-        <v>0.6073333333333333</v>
+        <v>0.6490013333333333</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -544,13 +544,13 @@
         <v>200</v>
       </c>
       <c r="C4">
-        <v>12</v>
+        <v>106.7166</v>
       </c>
       <c r="D4">
-        <v>76.4222</v>
+        <v>143.4722</v>
       </c>
       <c r="E4">
-        <v>13.8</v>
+        <v>41.4666</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -559,10 +559,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>90.2222</v>
+        <v>184.9388</v>
       </c>
       <c r="I4">
-        <v>0.451111</v>
+        <v>0.9246939999999999</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -602,10 +602,10 @@
         <v>150</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>24.52000000000001</v>
       </c>
       <c r="D6">
-        <v>84.526</v>
+        <v>109.046</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -617,10 +617,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>84.526</v>
+        <v>109.046</v>
       </c>
       <c r="I6">
-        <v>0.5635066666666666</v>
+        <v>0.7269733333333334</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -631,10 +631,10 @@
         <v>150</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -646,10 +646,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -660,10 +660,10 @@
         <v>150</v>
       </c>
       <c r="C8">
-        <v>9.799999999999997</v>
+        <v>38.18</v>
       </c>
       <c r="D8">
-        <v>44.0425</v>
+        <v>72.4225</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -675,10 +675,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>44.0425</v>
+        <v>72.4225</v>
       </c>
       <c r="I8">
-        <v>0.2936166666666666</v>
+        <v>0.4828166666666667</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -689,10 +689,10 @@
         <v>150</v>
       </c>
       <c r="C9">
-        <v>1.572999999999993</v>
+        <v>44.07300000000001</v>
       </c>
       <c r="D9">
-        <v>114.1064</v>
+        <v>156.6064</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>114.1064</v>
+        <v>156.6064</v>
       </c>
       <c r="I9">
-        <v>0.7607093333333332</v>
+        <v>1.044042666666667</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -718,10 +718,10 @@
         <v>150</v>
       </c>
       <c r="C10">
-        <v>0.7886000000000024</v>
+        <v>23.5552</v>
       </c>
       <c r="D10">
-        <v>61.4351</v>
+        <v>84.2017</v>
       </c>
       <c r="E10">
         <v>16.9</v>
@@ -733,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>78.3351</v>
+        <v>101.1017</v>
       </c>
       <c r="I10">
-        <v>0.522234</v>
+        <v>0.6740113333333333</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -747,10 +747,10 @@
         <v>150</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="D11">
-        <v>61.7</v>
+        <v>107.7</v>
       </c>
       <c r="E11">
         <v>8</v>
@@ -762,10 +762,10 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>69.7</v>
+        <v>115.7</v>
       </c>
       <c r="I11">
-        <v>0.4646666666666667</v>
+        <v>0.7713333333333333</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -776,13 +776,13 @@
         <v>1500</v>
       </c>
       <c r="C12">
-        <v>94.77000000000021</v>
+        <v>559.9758000000002</v>
       </c>
       <c r="D12">
-        <v>771.4938</v>
+        <v>1113.9654</v>
       </c>
       <c r="E12">
-        <v>364.6</v>
+        <v>487.3342</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -791,10 +791,10 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>1136.0938</v>
+        <v>1601.2996</v>
       </c>
       <c r="I12">
-        <v>0.7573958666666667</v>
+        <v>1.067533066666667</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -805,13 +805,13 @@
         <v>750</v>
       </c>
       <c r="C13">
-        <v>22</v>
+        <v>431.7586000000001</v>
       </c>
       <c r="D13">
-        <v>81.22</v>
+        <v>144.8112</v>
       </c>
       <c r="E13">
-        <v>128.8948</v>
+        <v>475.0622</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -820,10 +820,10 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>210.1148</v>
+        <v>619.8734000000001</v>
       </c>
       <c r="I13">
-        <v>0.2801530666666667</v>
+        <v>0.8264978666666668</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -834,13 +834,13 @@
         <v>750</v>
       </c>
       <c r="C14">
-        <v>12.00000000000006</v>
+        <v>307.9600000000001</v>
       </c>
       <c r="D14">
-        <v>307.6412</v>
+        <v>477.6012</v>
       </c>
       <c r="E14">
-        <v>132.7916</v>
+        <v>258.7916</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -849,10 +849,10 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>440.4328</v>
+        <v>736.3928000000001</v>
       </c>
       <c r="I14">
-        <v>0.5872437333333334</v>
+        <v>0.9818570666666667</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -863,13 +863,13 @@
         <v>650</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>349.2</v>
       </c>
       <c r="D15">
-        <v>30</v>
+        <v>179.5</v>
       </c>
       <c r="E15">
-        <v>563.026</v>
+        <v>762.726</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -878,10 +878,10 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>593.026</v>
+        <v>942.226</v>
       </c>
       <c r="I15">
-        <v>0.9123476923076922</v>
+        <v>1.449578461538461</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -892,13 +892,13 @@
         <v>500</v>
       </c>
       <c r="C16">
-        <v>75</v>
+        <v>349.9000000000001</v>
       </c>
       <c r="D16">
-        <v>90.8</v>
+        <v>168.8</v>
       </c>
       <c r="E16">
-        <v>328.2</v>
+        <v>525.1</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -907,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>419</v>
+        <v>693.9000000000001</v>
       </c>
       <c r="I16">
-        <v>0.838</v>
+        <v>1.3878</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -921,13 +921,13 @@
         <v>500</v>
       </c>
       <c r="C17">
-        <v>20.5</v>
+        <v>343.8000000000001</v>
       </c>
       <c r="D17">
-        <v>103.8</v>
+        <v>163.8</v>
       </c>
       <c r="E17">
-        <v>385.3271</v>
+        <v>648.6271</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -936,10 +936,10 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>489.1271</v>
+        <v>812.4271000000001</v>
       </c>
       <c r="I17">
-        <v>0.9782542</v>
+        <v>1.6248542</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -950,13 +950,13 @@
         <v>500</v>
       </c>
       <c r="C18">
-        <v>40.99999999999994</v>
+        <v>339.0588</v>
       </c>
       <c r="D18">
-        <v>13.9</v>
+        <v>28.1</v>
       </c>
       <c r="E18">
-        <v>479.45</v>
+        <v>763.3088</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>493.35</v>
+        <v>791.4088</v>
       </c>
       <c r="I18">
-        <v>0.9866999999999999</v>
+        <v>1.5828176</v>
       </c>
     </row>
   </sheetData>

--- a/result/团队_鑫e贷放款完成情况.xlsx
+++ b/result/团队_鑫e贷放款完成情况.xlsx
@@ -486,10 +486,10 @@
         <v>150</v>
       </c>
       <c r="C2">
-        <v>81.79000000000001</v>
+        <v>20</v>
       </c>
       <c r="D2">
-        <v>125.49</v>
+        <v>145.49</v>
       </c>
       <c r="E2">
         <v>20</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>145.49</v>
+        <v>165.49</v>
       </c>
       <c r="I2">
-        <v>0.9699333333333334</v>
+        <v>1.103266666666667</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -515,7 +515,7 @@
         <v>150</v>
       </c>
       <c r="C3">
-        <v>29.8502</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>87.3502</v>
@@ -544,10 +544,10 @@
         <v>200</v>
       </c>
       <c r="C4">
-        <v>106.7166</v>
+        <v>9</v>
       </c>
       <c r="D4">
-        <v>143.4722</v>
+        <v>152.4722</v>
       </c>
       <c r="E4">
         <v>41.4666</v>
@@ -559,10 +559,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>184.9388</v>
+        <v>193.9388</v>
       </c>
       <c r="I4">
-        <v>0.9246939999999999</v>
+        <v>0.9696939999999999</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -602,7 +602,7 @@
         <v>150</v>
       </c>
       <c r="C6">
-        <v>24.52000000000001</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>109.046</v>
@@ -631,7 +631,7 @@
         <v>150</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -660,10 +660,10 @@
         <v>150</v>
       </c>
       <c r="C8">
-        <v>38.18</v>
+        <v>20.09</v>
       </c>
       <c r="D8">
-        <v>72.4225</v>
+        <v>92.5125</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -675,10 +675,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>72.4225</v>
+        <v>92.5125</v>
       </c>
       <c r="I8">
-        <v>0.4828166666666667</v>
+        <v>0.61675</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -689,10 +689,10 @@
         <v>150</v>
       </c>
       <c r="C9">
-        <v>44.07300000000001</v>
+        <v>5</v>
       </c>
       <c r="D9">
-        <v>156.6064</v>
+        <v>161.6064</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>156.6064</v>
+        <v>161.6064</v>
       </c>
       <c r="I9">
-        <v>1.044042666666667</v>
+        <v>1.077376</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -718,10 +718,10 @@
         <v>150</v>
       </c>
       <c r="C10">
-        <v>23.5552</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>84.2017</v>
+        <v>86.2017</v>
       </c>
       <c r="E10">
         <v>16.9</v>
@@ -733,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>101.1017</v>
+        <v>103.1017</v>
       </c>
       <c r="I10">
-        <v>0.6740113333333333</v>
+        <v>0.6873446666666666</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -747,7 +747,7 @@
         <v>150</v>
       </c>
       <c r="C11">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>107.7</v>
@@ -776,13 +776,13 @@
         <v>1500</v>
       </c>
       <c r="C12">
-        <v>559.9758000000002</v>
+        <v>46.29999999999995</v>
       </c>
       <c r="D12">
-        <v>1113.9654</v>
+        <v>1120.2654</v>
       </c>
       <c r="E12">
-        <v>487.3342</v>
+        <v>527.3342</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -791,10 +791,10 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>1601.2996</v>
+        <v>1647.5996</v>
       </c>
       <c r="I12">
-        <v>1.067533066666667</v>
+        <v>1.098399733333333</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -805,13 +805,13 @@
         <v>750</v>
       </c>
       <c r="C13">
-        <v>431.7586000000001</v>
+        <v>54.00000000000011</v>
       </c>
       <c r="D13">
-        <v>144.8112</v>
+        <v>178.8112</v>
       </c>
       <c r="E13">
-        <v>475.0622</v>
+        <v>495.0622</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -820,10 +820,10 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>619.8734000000001</v>
+        <v>673.8734000000001</v>
       </c>
       <c r="I13">
-        <v>0.8264978666666668</v>
+        <v>0.8984978666666668</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -834,10 +834,10 @@
         <v>750</v>
       </c>
       <c r="C14">
-        <v>307.9600000000001</v>
+        <v>40.23400000000004</v>
       </c>
       <c r="D14">
-        <v>477.6012</v>
+        <v>517.8352</v>
       </c>
       <c r="E14">
         <v>258.7916</v>
@@ -849,10 +849,10 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>736.3928000000001</v>
+        <v>776.6268</v>
       </c>
       <c r="I14">
-        <v>0.9818570666666667</v>
+        <v>1.0355024</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -863,13 +863,13 @@
         <v>650</v>
       </c>
       <c r="C15">
-        <v>349.2</v>
+        <v>74</v>
       </c>
       <c r="D15">
-        <v>179.5</v>
+        <v>219.5</v>
       </c>
       <c r="E15">
-        <v>762.726</v>
+        <v>796.726</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -878,10 +878,10 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>942.226</v>
+        <v>1016.226</v>
       </c>
       <c r="I15">
-        <v>1.449578461538461</v>
+        <v>1.563424615384615</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -892,13 +892,13 @@
         <v>500</v>
       </c>
       <c r="C16">
-        <v>349.9000000000001</v>
+        <v>14.00000000000011</v>
       </c>
       <c r="D16">
         <v>168.8</v>
       </c>
       <c r="E16">
-        <v>525.1</v>
+        <v>539.1</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -907,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>693.9000000000001</v>
+        <v>707.9000000000001</v>
       </c>
       <c r="I16">
-        <v>1.3878</v>
+        <v>1.4158</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -921,7 +921,7 @@
         <v>500</v>
       </c>
       <c r="C17">
-        <v>343.8000000000001</v>
+        <v>1.13686837721616E-13</v>
       </c>
       <c r="D17">
         <v>163.8</v>
@@ -950,13 +950,13 @@
         <v>500</v>
       </c>
       <c r="C18">
-        <v>339.0588</v>
+        <v>50</v>
       </c>
       <c r="D18">
         <v>28.1</v>
       </c>
       <c r="E18">
-        <v>763.3088</v>
+        <v>813.3088</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>791.4088</v>
+        <v>841.4088</v>
       </c>
       <c r="I18">
-        <v>1.5828176</v>
+        <v>1.6828176</v>
       </c>
     </row>
   </sheetData>

--- a/result/团队_鑫e贷放款完成情况.xlsx
+++ b/result/团队_鑫e贷放款完成情况.xlsx
@@ -486,13 +486,13 @@
         <v>150</v>
       </c>
       <c r="C2">
-        <v>20</v>
+        <v>20.7</v>
       </c>
       <c r="D2">
-        <v>145.49</v>
+        <v>15.7</v>
       </c>
       <c r="E2">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>165.49</v>
+        <v>20.7</v>
       </c>
       <c r="I2">
-        <v>1.103266666666667</v>
+        <v>0.138</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -518,10 +518,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>87.3502</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -530,10 +530,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>97.3502</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.6490013333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -544,13 +544,13 @@
         <v>200</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>5.35</v>
       </c>
       <c r="D4">
-        <v>152.4722</v>
+        <v>5.35</v>
       </c>
       <c r="E4">
-        <v>41.4666</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -559,10 +559,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>193.9388</v>
+        <v>5.35</v>
       </c>
       <c r="I4">
-        <v>0.9696939999999999</v>
+        <v>0.02675</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -602,10 +602,10 @@
         <v>150</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>25.8927</v>
       </c>
       <c r="D6">
-        <v>109.046</v>
+        <v>25.8927</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -617,10 +617,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>109.046</v>
+        <v>25.8927</v>
       </c>
       <c r="I6">
-        <v>0.7269733333333334</v>
+        <v>0.172618</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -634,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -646,10 +646,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -660,10 +660,10 @@
         <v>150</v>
       </c>
       <c r="C8">
-        <v>20.09</v>
+        <v>48.46</v>
       </c>
       <c r="D8">
-        <v>92.5125</v>
+        <v>48.46</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -675,10 +675,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>92.5125</v>
+        <v>48.46</v>
       </c>
       <c r="I8">
-        <v>0.61675</v>
+        <v>0.3230666666666667</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -689,10 +689,10 @@
         <v>150</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="D9">
-        <v>161.6064</v>
+        <v>44</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>161.6064</v>
+        <v>44</v>
       </c>
       <c r="I9">
-        <v>1.077376</v>
+        <v>0.2933333333333333</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -718,13 +718,13 @@
         <v>150</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="D10">
-        <v>86.2017</v>
+        <v>24</v>
       </c>
       <c r="E10">
-        <v>16.9</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -733,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>103.1017</v>
+        <v>24</v>
       </c>
       <c r="I10">
-        <v>0.6873446666666666</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -747,13 +747,13 @@
         <v>150</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="D11">
-        <v>107.7</v>
+        <v>1.05</v>
       </c>
       <c r="E11">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -762,10 +762,10 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>115.7</v>
+        <v>1.05</v>
       </c>
       <c r="I11">
-        <v>0.7713333333333333</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -776,13 +776,13 @@
         <v>1500</v>
       </c>
       <c r="C12">
-        <v>46.29999999999995</v>
+        <v>195.3921</v>
       </c>
       <c r="D12">
-        <v>1120.2654</v>
+        <v>109.8921</v>
       </c>
       <c r="E12">
-        <v>527.3342</v>
+        <v>85.5</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -791,10 +791,10 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>1647.5996</v>
+        <v>195.3921</v>
       </c>
       <c r="I12">
-        <v>1.098399733333333</v>
+        <v>0.1302614</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -805,13 +805,13 @@
         <v>750</v>
       </c>
       <c r="C13">
-        <v>54.00000000000011</v>
+        <v>555.77</v>
       </c>
       <c r="D13">
-        <v>178.8112</v>
+        <v>21.62</v>
       </c>
       <c r="E13">
-        <v>495.0622</v>
+        <v>534.15</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -820,10 +820,10 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>673.8734000000001</v>
+        <v>555.77</v>
       </c>
       <c r="I13">
-        <v>0.8984978666666668</v>
+        <v>0.7410266666666666</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -834,13 +834,13 @@
         <v>750</v>
       </c>
       <c r="C14">
-        <v>40.23400000000004</v>
+        <v>123.2988</v>
       </c>
       <c r="D14">
-        <v>517.8352</v>
+        <v>123.2988</v>
       </c>
       <c r="E14">
-        <v>258.7916</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -849,10 +849,10 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>776.6268</v>
+        <v>123.2988</v>
       </c>
       <c r="I14">
-        <v>1.0355024</v>
+        <v>0.1643984</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -863,13 +863,13 @@
         <v>650</v>
       </c>
       <c r="C15">
-        <v>74</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="D15">
-        <v>219.5</v>
+        <v>48.2</v>
       </c>
       <c r="E15">
-        <v>796.726</v>
+        <v>35.4</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -878,10 +878,10 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>1016.226</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="I15">
-        <v>1.563424615384615</v>
+        <v>0.1286153846153846</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -892,13 +892,13 @@
         <v>500</v>
       </c>
       <c r="C16">
-        <v>14.00000000000011</v>
+        <v>157.4</v>
       </c>
       <c r="D16">
-        <v>168.8</v>
+        <v>31.5</v>
       </c>
       <c r="E16">
-        <v>539.1</v>
+        <v>125.9</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -907,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>707.9000000000001</v>
+        <v>157.4</v>
       </c>
       <c r="I16">
-        <v>1.4158</v>
+        <v>0.3148</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -921,13 +921,13 @@
         <v>500</v>
       </c>
       <c r="C17">
-        <v>1.13686837721616E-13</v>
+        <v>149.9</v>
       </c>
       <c r="D17">
-        <v>163.8</v>
+        <v>69.8</v>
       </c>
       <c r="E17">
-        <v>648.6271</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -936,10 +936,10 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>812.4271000000001</v>
+        <v>149.9</v>
       </c>
       <c r="I17">
-        <v>1.6248542</v>
+        <v>0.2998</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -950,13 +950,13 @@
         <v>500</v>
       </c>
       <c r="C18">
-        <v>50</v>
+        <v>104.5</v>
       </c>
       <c r="D18">
-        <v>28.1</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>813.3088</v>
+        <v>104.5</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>841.4088</v>
+        <v>104.5</v>
       </c>
       <c r="I18">
-        <v>1.6828176</v>
+        <v>0.209</v>
       </c>
     </row>
   </sheetData>

--- a/result/团队_鑫e贷放款完成情况.xlsx
+++ b/result/团队_鑫e贷放款完成情况.xlsx
@@ -515,13 +515,13 @@
         <v>150</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>34.7</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>14.7</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -530,10 +530,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>34.7</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.2313333333333334</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -544,10 +544,10 @@
         <v>200</v>
       </c>
       <c r="C4">
-        <v>5.35</v>
+        <v>28.82</v>
       </c>
       <c r="D4">
-        <v>5.35</v>
+        <v>28.82</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -559,10 +559,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5.35</v>
+        <v>28.82</v>
       </c>
       <c r="I4">
-        <v>0.02675</v>
+        <v>0.1441</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -602,10 +602,10 @@
         <v>150</v>
       </c>
       <c r="C6">
-        <v>25.8927</v>
+        <v>33.8927</v>
       </c>
       <c r="D6">
-        <v>25.8927</v>
+        <v>33.8927</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -617,10 +617,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>25.8927</v>
+        <v>33.8927</v>
       </c>
       <c r="I6">
-        <v>0.172618</v>
+        <v>0.2259513333333333</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -660,10 +660,10 @@
         <v>150</v>
       </c>
       <c r="C8">
-        <v>48.46</v>
+        <v>58.46</v>
       </c>
       <c r="D8">
-        <v>48.46</v>
+        <v>58.46</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -675,10 +675,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>48.46</v>
+        <v>58.46</v>
       </c>
       <c r="I8">
-        <v>0.3230666666666667</v>
+        <v>0.3897333333333333</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -689,10 +689,10 @@
         <v>150</v>
       </c>
       <c r="C9">
-        <v>44</v>
+        <v>48.2</v>
       </c>
       <c r="D9">
-        <v>44</v>
+        <v>48.2</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>44</v>
+        <v>48.2</v>
       </c>
       <c r="I9">
-        <v>0.2933333333333333</v>
+        <v>0.3213333333333334</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -718,10 +718,10 @@
         <v>150</v>
       </c>
       <c r="C10">
-        <v>24</v>
+        <v>30.6</v>
       </c>
       <c r="D10">
-        <v>24</v>
+        <v>30.6</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -733,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>24</v>
+        <v>30.6</v>
       </c>
       <c r="I10">
-        <v>0.16</v>
+        <v>0.204</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -747,10 +747,10 @@
         <v>150</v>
       </c>
       <c r="C11">
-        <v>1.05</v>
+        <v>18.85</v>
       </c>
       <c r="D11">
-        <v>1.05</v>
+        <v>18.85</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -762,10 +762,10 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>1.05</v>
+        <v>18.85</v>
       </c>
       <c r="I11">
-        <v>0.007</v>
+        <v>0.1256666666666667</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -776,13 +776,13 @@
         <v>1500</v>
       </c>
       <c r="C12">
-        <v>195.3921</v>
+        <v>331.3954</v>
       </c>
       <c r="D12">
-        <v>109.8921</v>
+        <v>220.8954</v>
       </c>
       <c r="E12">
-        <v>85.5</v>
+        <v>110.5</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -791,10 +791,10 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>195.3921</v>
+        <v>331.3954</v>
       </c>
       <c r="I12">
-        <v>0.1302614</v>
+        <v>0.2209302666666667</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -805,13 +805,13 @@
         <v>750</v>
       </c>
       <c r="C13">
-        <v>555.77</v>
+        <v>826.72</v>
       </c>
       <c r="D13">
-        <v>21.62</v>
+        <v>62.07</v>
       </c>
       <c r="E13">
-        <v>534.15</v>
+        <v>764.65</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -820,10 +820,10 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>555.77</v>
+        <v>826.72</v>
       </c>
       <c r="I13">
-        <v>0.7410266666666666</v>
+        <v>1.102293333333333</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -834,13 +834,13 @@
         <v>750</v>
       </c>
       <c r="C14">
-        <v>123.2988</v>
+        <v>180.0454</v>
       </c>
       <c r="D14">
-        <v>123.2988</v>
+        <v>175.0454</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -849,10 +849,10 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>123.2988</v>
+        <v>180.0454</v>
       </c>
       <c r="I14">
-        <v>0.1643984</v>
+        <v>0.2400605333333333</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -863,13 +863,13 @@
         <v>650</v>
       </c>
       <c r="C15">
-        <v>83.59999999999999</v>
+        <v>145.2</v>
       </c>
       <c r="D15">
-        <v>48.2</v>
+        <v>78</v>
       </c>
       <c r="E15">
-        <v>35.4</v>
+        <v>67.2</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -878,10 +878,10 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>83.59999999999999</v>
+        <v>145.2</v>
       </c>
       <c r="I15">
-        <v>0.1286153846153846</v>
+        <v>0.2233846153846154</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -892,13 +892,13 @@
         <v>500</v>
       </c>
       <c r="C16">
-        <v>157.4</v>
+        <v>174.4</v>
       </c>
       <c r="D16">
         <v>31.5</v>
       </c>
       <c r="E16">
-        <v>125.9</v>
+        <v>142.9</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -907,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>157.4</v>
+        <v>174.4</v>
       </c>
       <c r="I16">
-        <v>0.3148</v>
+        <v>0.3488</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -921,13 +921,13 @@
         <v>500</v>
       </c>
       <c r="C17">
-        <v>149.9</v>
+        <v>214.9</v>
       </c>
       <c r="D17">
-        <v>69.8</v>
+        <v>119.8</v>
       </c>
       <c r="E17">
-        <v>80.09999999999999</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -936,10 +936,10 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>149.9</v>
+        <v>214.9</v>
       </c>
       <c r="I17">
-        <v>0.2998</v>
+        <v>0.4298</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -950,13 +950,13 @@
         <v>500</v>
       </c>
       <c r="C18">
-        <v>104.5</v>
+        <v>217.95</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>104.5</v>
+        <v>217.95</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>104.5</v>
+        <v>217.95</v>
       </c>
       <c r="I18">
-        <v>0.209</v>
+        <v>0.4359</v>
       </c>
     </row>
   </sheetData>
